--- a/project/docs/ACIM_FOC_parameters.xlsx
+++ b/project/docs/ACIM_FOC_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS_D\BitBucket\MCHV_IM\mchv230vac1.5kw-33ck256mp508-acim-an1206-foc-pll\project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS_D\CE_Release\BitBucket\mchv230vac1.5kw-33ck256mp508-acim-an1206-foc-pll-ce\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BF5FEF-2276-46BA-A54F-A3A7980D5AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A619A0-9344-4A04-9700-F02A99726FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1380" windowWidth="17280" windowHeight="11580" xr2:uid="{B2002F51-A475-4A03-975C-2D7513E29250}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2002F51-A475-4A03-975C-2D7513E29250}"/>
   </bookViews>
   <sheets>
     <sheet name="ACIM_FOC" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Board Peak current</t>
   </si>
@@ -171,40 +171,10 @@
     <t>rad/sec(ele)</t>
   </si>
   <si>
-    <t>Q_CURRCNTR_PTERM</t>
-  </si>
-  <si>
     <t>RPM</t>
   </si>
   <si>
-    <t>Q_CURRCNTR_ITERM</t>
-  </si>
-  <si>
-    <t>Q_CURRCNTR_PTERM_SCALE</t>
-  </si>
-  <si>
     <t>Q15</t>
-  </si>
-  <si>
-    <t>Zeta</t>
-  </si>
-  <si>
-    <t>Kp_D&amp;Qaxis_current_control</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Ki_D&amp;Qaxis_current_control</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>pu x dt</t>
-  </si>
-  <si>
-    <t>Q_CURRCNTR_ITERM_SCALE</t>
   </si>
   <si>
     <t>Board parameters</t>
@@ -807,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306D1DD7-844E-4B97-9BAC-E538F2BDFA1F}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="119" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="119" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +796,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>4</v>
@@ -853,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C3" s="18">
         <v>20000</v>
@@ -867,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C4" s="18">
         <f t="shared" ref="C4:D4" si="0">1/C3</f>
@@ -883,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C5" s="20">
         <v>1.5E-6</v>
@@ -894,7 +864,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="24" t="s">
@@ -906,7 +876,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -1177,7 +1147,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>17</v>
@@ -1193,7 +1163,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>17</v>
@@ -1210,7 +1180,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>41</v>
@@ -1227,7 +1197,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>10</v>
@@ -1244,7 +1214,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>43</v>
@@ -1263,7 +1233,7 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="6">
         <f>2.5*C12</f>
@@ -1278,7 +1248,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>12</v>
@@ -1304,7 +1274,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="6"/>
@@ -1400,7 +1370,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C41" s="12">
         <f>C4*C30/PI()*2^15</f>
@@ -1417,7 +1387,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C42" s="12">
         <f>C4*C18/C22*2^15</f>
@@ -1434,7 +1404,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C43" s="12">
         <f>(1/C30)*(1/(C22/C18))*2^15</f>
@@ -1450,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C44" s="12">
         <f>2/60*C4*C12*C9*2^15</f>
@@ -1466,7 +1436,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" s="12">
         <f>2*8/60*C4*C12*C9*2^15</f>
@@ -1485,7 +1455,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="10"/>
@@ -1522,134 +1492,6 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="27">
-        <v>1.2</v>
-      </c>
-      <c r="D52" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="6">
-        <f>C23/(4*C52*C52*(C4))</f>
-        <v>108.88931627688868</v>
-      </c>
-      <c r="D53" s="6">
-        <f>D23/(4*D52*D52*(D4))</f>
-        <v>668.18181818181779</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="6">
-        <f>C53/(C23/C10)</f>
-        <v>26041.666666666668</v>
-      </c>
-      <c r="D54" s="6">
-        <f>D53/(D23/D10)</f>
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="6">
-        <f>(C53/C29)</f>
-        <v>1.6740870222755164</v>
-      </c>
-      <c r="D55" s="6">
-        <f>(D53/D29)</f>
-        <v>10.279720279720273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="6">
-        <f>(C54/C29)*C4</f>
-        <v>2.0018500297234697E-2</v>
-      </c>
-      <c r="D56" s="6">
-        <f>(D54/D29)*D4</f>
-        <v>0.12307692307692308</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="12">
-        <f>C55*2^(15-C58)</f>
-        <v>13714.120886481031</v>
-      </c>
-      <c r="D57" s="12">
-        <f>D55*2^(15-D58)</f>
-        <v>10526.433566433559</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="12">
-        <v>2</v>
-      </c>
-      <c r="D58" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="12">
-        <f>C56*2^(15-C60)</f>
-        <v>655.96621773978654</v>
-      </c>
-      <c r="D59" s="12">
-        <f>D56*2^(15-D60)</f>
-        <v>4032.9846153846156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="12">
-        <v>0</v>
-      </c>
-      <c r="D60" s="12">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
